--- a/tables/payment.xlsx
+++ b/tables/payment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -497,7 +497,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-27</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,11 +507,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -523,17 +523,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-02-01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-02-09</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>6</v>
@@ -627,17 +627,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-03-03</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -653,12 +653,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-03-04</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>8</v>
@@ -679,12 +679,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-03-07</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
         <v>9</v>
@@ -705,21 +705,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2020-03-08</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
@@ -731,7 +731,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-04-03</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -741,11 +741,11 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>11</v>
@@ -757,21 +757,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2020-03-15</t>
+          <t>2020-04-09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>12</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2020-03-13</t>
+          <t>2020-04-12</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -809,17 +809,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2020-03-21</t>
+          <t>2020-04-19</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -835,12 +835,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2020-03-23</t>
+          <t>2020-04-22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -861,12 +861,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-05-03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
@@ -887,21 +887,21 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2020-04-02</t>
+          <t>2020-05-02</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>17</v>
@@ -913,12 +913,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2020-04-07</t>
+          <t>2020-05-13</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -927,7 +927,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>18</v>
@@ -939,17 +939,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2020-04-15</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -965,12 +965,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2020-04-14</t>
+          <t>2020-05-24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
         <v>20</v>
@@ -991,7 +991,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2020-04-20</t>
+          <t>2020-05-26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1001,11 +1001,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
         <v>21</v>
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-05-31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1043,12 +1043,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
         <v>23</v>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-06-09</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1095,21 +1095,21 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-06-17</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>25</v>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2020-04-26</t>
+          <t>2020-06-21</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
         <v>26</v>
@@ -1147,21 +1147,21 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2020-04-24</t>
+          <t>2020-06-29</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2020-05-10</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1183,11 +1183,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
         <v>28</v>
@@ -1199,17 +1199,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2020-07-14</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2020-05-16</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2020-05-15</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2020-05-19</t>
+          <t>2020-09-07</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2020-09-12</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>33</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2020-05-31</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1339,11 +1339,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>34</v>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2020-06-01</t>
+          <t>2020-09-19</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1365,11 +1365,11 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>35</v>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2020-05-30</t>
+          <t>2020-09-23</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1395,7 +1395,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>36</v>
@@ -1407,12 +1407,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2020-06-06</t>
+          <t>2020-10-10</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1433,12 +1433,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="n">
         <v>38</v>
@@ -1459,21 +1459,21 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2020-06-12</t>
+          <t>2020-10-23</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" t="n">
         <v>39</v>
@@ -1485,17 +1485,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2020-06-18</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2020-06-23</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1521,11 +1521,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
         <v>41</v>
@@ -1537,12 +1537,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-11-02</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
         <v>42</v>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2020-07-04</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
         <v>43</v>
@@ -1589,12 +1589,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2020-07-03</t>
+          <t>2020-11-24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1615,17 +1615,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2020-07-07</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2020-07-12</t>
+          <t>2020-12-13</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1655,7 +1655,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>46</v>
@@ -1667,21 +1667,21 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2020-07-18</t>
+          <t>2020-12-12</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>47</v>
@@ -1693,21 +1693,21 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-12-20</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>48</v>
@@ -1719,12 +1719,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2020-12-25</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>49</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2020-07-19</t>
+          <t>2021-01-02</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
         <v>50</v>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2020-07-24</t>
+          <t>2021-01-09</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
         <v>51</v>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2020-08-01</t>
+          <t>2021-01-21</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
         <v>52</v>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2020-08-01</t>
+          <t>2021-01-25</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="n">
         <v>53</v>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2021-02-11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -1875,17 +1875,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>2021-02-19</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -1901,21 +1901,21 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>2021-02-23</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
         <v>56</v>
@@ -1927,12 +1927,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>2021-02-24</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1953,17 +1953,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2021-03-03</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2020-08-29</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2005,21 +2005,21 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61" t="n">
         <v>60</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2020-09-21</t>
+          <t>2021-03-13</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2057,21 +2057,21 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2020-09-27</t>
+          <t>2021-03-17</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
         <v>62</v>
@@ -2083,21 +2083,21 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2021-03-18</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
         <v>63</v>
@@ -2109,17 +2109,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2020-10-11</t>
+          <t>2021-03-29</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2020-10-11</t>
+          <t>2021-04-03</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2021-04-04</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
         <v>66</v>
@@ -2187,17 +2187,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2021-04-15</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2020-10-18</t>
+          <t>2021-04-18</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2223,11 +2223,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
         <v>68</v>
@@ -2239,12 +2239,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2020-10-23</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2020-10-23</t>
+          <t>2021-04-24</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2275,11 +2275,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
         <v>70</v>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2020-10-27</t>
+          <t>2021-05-04</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" t="n">
         <v>71</v>
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2021-05-03</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2327,11 +2327,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73" t="n">
         <v>72</v>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2353,11 +2353,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F74" t="n">
         <v>73</v>
@@ -2369,21 +2369,21 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2020-11-10</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F75" t="n">
         <v>74</v>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2409,7 +2409,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>75</v>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2020-11-15</t>
+          <t>2021-05-28</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2435,7 +2435,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
         <v>76</v>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2020-11-21</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2457,11 +2457,11 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="n">
         <v>77</v>
@@ -2473,12 +2473,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2020-11-24</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2487,7 +2487,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
         <v>78</v>
@@ -2499,12 +2499,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2020-11-26</t>
+          <t>2021-05-28</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2513,7 +2513,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>79</v>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2020-12-02</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2535,11 +2535,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
         <v>80</v>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2020-12-23</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
         <v>81</v>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2021-07-03</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2587,11 +2587,11 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" t="n">
         <v>82</v>
@@ -2603,17 +2603,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2020-12-26</t>
+          <t>2021-07-09</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2629,21 +2629,21 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
         <v>84</v>
@@ -2655,12 +2655,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-12-27</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F86" t="n">
         <v>85</v>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020-12-30</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2707,17 +2707,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021-01-05</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021-01-05</t>
+          <t>2021-07-23</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="n">
         <v>88</v>
@@ -2759,12 +2759,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021-01-10</t>
+          <t>2021-07-21</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2785,12 +2785,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021-01-23</t>
+          <t>2021-08-07</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2799,7 +2799,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
         <v>90</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021-01-31</t>
+          <t>2021-08-12</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>91</v>
@@ -2837,12 +2837,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021-02-03</t>
+          <t>2021-08-15</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>92</v>
@@ -2863,7 +2863,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021-02-15</t>
+          <t>2021-08-20</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
         <v>93</v>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021-02-17</t>
+          <t>2021-08-23</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2915,21 +2915,21 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021-02-18</t>
+          <t>2021-08-29</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
         <v>95</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-09-09</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
         <v>96</v>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021-03-08</t>
+          <t>2021-09-10</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2993,21 +2993,21 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2021-09-12</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
         <v>98</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2021-09-14</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3029,11 +3029,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
         <v>99</v>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2021-09-23</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3055,11 +3055,11 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="n">
         <v>100</v>
@@ -3071,7 +3071,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021-03-23</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3085,7 +3085,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
         <v>101</v>
@@ -3097,12 +3097,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021-03-30</t>
+          <t>2021-10-11</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F103" t="n">
         <v>102</v>
@@ -3123,17 +3123,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021-04-14</t>
+          <t>2021-10-20</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E104" t="n">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021-04-17</t>
+          <t>2021-11-09</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3159,11 +3159,11 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
         <v>104</v>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021-04-15</t>
+          <t>2021-11-19</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3185,11 +3185,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
         <v>105</v>
@@ -3201,12 +3201,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021-04-22</t>
+          <t>2021-11-16</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3227,21 +3227,21 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021-05-03</t>
+          <t>2021-11-22</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F108" t="n">
         <v>107</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021-05-04</t>
+          <t>2021-11-25</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3263,11 +3263,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F109" t="n">
         <v>108</v>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021-05-08</t>
+          <t>2021-11-24</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3289,11 +3289,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F110" t="n">
         <v>109</v>
@@ -3305,17 +3305,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-11-27</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3331,7 +3331,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-12-02</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-12-02</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F113" t="n">
         <v>112</v>
@@ -3383,12 +3383,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-12-08</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021-06-12</t>
+          <t>2021-12-15</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F115" t="n">
         <v>114</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021-07-04</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -3461,21 +3461,21 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F117" t="n">
         <v>116</v>
@@ -3487,12 +3487,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>2021-12-24</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021-07-17</t>
+          <t>2021-12-28</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3523,11 +3523,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
         <v>118</v>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2021-12-25</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3553,7 +3553,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F120" t="n">
         <v>119</v>
@@ -3565,21 +3565,21 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
+          <t>2021-12-25</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F121" t="n">
         <v>120</v>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021-08-17</t>
+          <t>2022-01-02</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
         <v>121</v>
@@ -3617,12 +3617,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021-08-19</t>
+          <t>2022-01-09</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3631,7 +3631,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F123" t="n">
         <v>122</v>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2022-01-14</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3653,7 +3653,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021-08-27</t>
+          <t>2022-01-19</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -3695,12 +3695,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021-08-26</t>
+          <t>2022-01-23</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F126" t="n">
         <v>125</v>
@@ -3721,12 +3721,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021-09-01</t>
+          <t>2022-01-28</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3735,7 +3735,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F127" t="n">
         <v>126</v>
@@ -3747,21 +3747,21 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2022-02-03</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F128" t="n">
         <v>127</v>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021-09-05</t>
+          <t>2022-02-02</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F129" t="n">
         <v>128</v>
@@ -3799,12 +3799,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021-09-10</t>
+          <t>2022-02-18</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F130" t="n">
         <v>129</v>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021-09-28</t>
+          <t>2022-02-25</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3835,11 +3835,11 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F131" t="n">
         <v>130</v>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021-10-01</t>
+          <t>2022-02-27</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3861,11 +3861,11 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F132" t="n">
         <v>131</v>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021-10-02</t>
+          <t>2022-03-04</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3887,11 +3887,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
         <v>132</v>
@@ -3903,7 +3903,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021-10-06</t>
+          <t>2022-03-06</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3917,7 +3917,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
         <v>133</v>
@@ -3929,21 +3929,21 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021-10-10</t>
+          <t>2022-03-08</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F135" t="n">
         <v>134</v>
@@ -3955,21 +3955,21 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021-10-17</t>
+          <t>2022-03-13</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F136" t="n">
         <v>135</v>
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021-10-18</t>
+          <t>2022-03-12</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
         <v>136</v>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021-10-31</t>
+          <t>2022-03-23</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4017,11 +4017,11 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
         <v>137</v>
@@ -4033,7 +4033,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021-11-04</t>
+          <t>2022-03-28</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021-11-12</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4069,11 +4069,11 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F140" t="n">
         <v>139</v>
@@ -4085,12 +4085,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2022-04-04</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
         <v>140</v>
@@ -4111,12 +4111,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021-11-15</t>
+          <t>2022-04-01</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4137,12 +4137,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021-11-21</t>
+          <t>2022-04-06</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F143" t="n">
         <v>142</v>
@@ -4163,12 +4163,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021-11-23</t>
+          <t>2022-04-09</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F144" t="n">
         <v>143</v>
@@ -4189,7 +4189,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F145" t="n">
         <v>144</v>
@@ -4215,7 +4215,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021-12-06</t>
+          <t>2022-04-13</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4225,11 +4225,11 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
         <v>145</v>
@@ -4241,12 +4241,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021-12-05</t>
+          <t>2022-04-21</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4255,7 +4255,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
         <v>146</v>
@@ -4267,12 +4267,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021-12-13</t>
+          <t>2022-04-29</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F148" t="n">
         <v>147</v>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021-12-18</t>
+          <t>2022-05-01</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4319,12 +4319,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021-12-19</t>
+          <t>2022-05-04</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4355,11 +4355,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" t="n">
         <v>150</v>
@@ -4371,17 +4371,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2022-01-05</t>
+          <t>2022-05-08</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2022-01-03</t>
+          <t>2022-05-15</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2022-01-12</t>
+          <t>2022-05-18</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4433,11 +4433,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F154" t="n">
         <v>153</v>
@@ -4449,21 +4449,21 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2022-01-22</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
         <v>154</v>
@@ -4475,17 +4475,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2022-01-20</t>
+          <t>2022-05-28</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -4501,7 +4501,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2022-01-29</t>
+          <t>2022-06-09</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4515,7 +4515,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F157" t="n">
         <v>156</v>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2022-01-30</t>
+          <t>2022-06-14</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4553,12 +4553,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2022-01-31</t>
+          <t>2022-06-18</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2022-02-03</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
         <v>159</v>
@@ -4605,12 +4605,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2022-02-10</t>
+          <t>2022-07-11</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2022-02-15</t>
+          <t>2022-07-15</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F162" t="n">
         <v>161</v>
@@ -4657,12 +4657,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2022-03-02</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F163" t="n">
         <v>162</v>
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2022-03-03</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F164" t="n">
         <v>163</v>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-07-30</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4719,11 +4719,11 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F165" t="n">
         <v>164</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2022-03-21</t>
+          <t>2022-08-05</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -4761,12 +4761,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-08-03</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Crypto</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4775,7 +4775,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F167" t="n">
         <v>166</v>
@@ -4787,21 +4787,21 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2022-04-02</t>
+          <t>2022-08-22</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F168" t="n">
         <v>167</v>
@@ -4813,21 +4813,21 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2022-04-06</t>
+          <t>2022-09-04</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F169" t="n">
         <v>168</v>
@@ -4839,12 +4839,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2022-04-08</t>
+          <t>2022-10-07</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Crypto</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4853,7 +4853,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
         <v>169</v>
@@ -4865,21 +4865,21 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2022-04-26</t>
+          <t>2022-10-21</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Card</t>
+          <t>Cash</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F171" t="n">
         <v>170</v>
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2022-05-07</t>
+          <t>2022-10-26</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4901,11 +4901,11 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>When delivered</t>
+          <t>Instant</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F172" t="n">
         <v>171</v>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4927,11 +4927,11 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
         <v>172</v>
@@ -4943,7 +4943,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2022-10-29</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2022-05-10</t>
+          <t>2022-10-31</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F175" t="n">
         <v>174</v>
@@ -4995,7 +4995,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2022-05-19</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F176" t="n">
         <v>175</v>
@@ -5021,648 +5021,24 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2022-05-26</t>
+          <t>2022-11-21</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Cash</t>
+          <t>Card</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Instant</t>
+          <t>When delivered</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F177" t="n">
         <v>176</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>177</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022-05-29</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>1</v>
-      </c>
-      <c r="F178" t="n">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>178</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>When delivered</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>1</v>
-      </c>
-      <c r="F179" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>179</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022-07-06</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>3</v>
-      </c>
-      <c r="F180" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>180</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022-07-09</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>When delivered</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>1</v>
-      </c>
-      <c r="F181" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>181</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022-07-10</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>When delivered</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>1</v>
-      </c>
-      <c r="F182" t="n">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>182</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022-07-09</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>1</v>
-      </c>
-      <c r="F183" t="n">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>183</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022-07-27</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>2</v>
-      </c>
-      <c r="F184" t="n">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>184</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022-07-27</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>3</v>
-      </c>
-      <c r="F185" t="n">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>185</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022-08-11</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>1</v>
-      </c>
-      <c r="F186" t="n">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>186</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022-08-13</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>1</v>
-      </c>
-      <c r="F187" t="n">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>187</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022-08-16</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Crypto</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>When delivered</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>1</v>
-      </c>
-      <c r="F188" t="n">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>188</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022-08-31</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>2</v>
-      </c>
-      <c r="F189" t="n">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>189</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022-09-06</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>1</v>
-      </c>
-      <c r="F190" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>190</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022-09-09</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>When delivered</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>1</v>
-      </c>
-      <c r="F191" t="n">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>191</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022-09-14</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>1</v>
-      </c>
-      <c r="F192" t="n">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>192</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022-09-23</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>When delivered</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>1</v>
-      </c>
-      <c r="F193" t="n">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>193</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022-09-23</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>3</v>
-      </c>
-      <c r="F194" t="n">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>194</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022-09-26</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>1</v>
-      </c>
-      <c r="F195" t="n">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>195</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022-10-01</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>3</v>
-      </c>
-      <c r="F196" t="n">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>196</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022-10-03</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>1</v>
-      </c>
-      <c r="F197" t="n">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>197</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022-10-13</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>3</v>
-      </c>
-      <c r="F198" t="n">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>198</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022-11-01</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>1</v>
-      </c>
-      <c r="F199" t="n">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>199</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022-11-06</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>1</v>
-      </c>
-      <c r="F200" t="n">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>200</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022-11-12</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Card</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>1</v>
-      </c>
-      <c r="F201" t="n">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
